--- a/addressbook-web-tests/addressbook-web-tests/contacts.xlsx
+++ b/addressbook-web-tests/addressbook-web-tests/contacts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Omi_PC\source\repos\csharp_training\addressbook-web-tests\addressbook-test-data-generators\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omi_PC\source\repos\csharp_training\addressbook-web-tests\addressbook-web-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,24 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>2"</t>
-  </si>
-  <si>
-    <t>,8D</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>^3</t>
-  </si>
-  <si>
-    <t>aD?W</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>dsgfhdfg</t>
+  </si>
+  <si>
+    <t>вапрвапр</t>
+  </si>
+  <si>
+    <t>апрвап</t>
+  </si>
+  <si>
+    <t>апрапр</t>
+  </si>
+  <si>
+    <t>sfbvxzcvb</t>
   </si>
 </sst>
 </file>
@@ -362,7 +359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -387,7 +386,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
